--- a/L-D5019-01-05/Project Outputs/L-D5019-01-05_Default.xlsx
+++ b/L-D5019-01-05/Project Outputs/L-D5019-01-05_Default.xlsx
@@ -67,7 +67,7 @@
     <t xml:space="preserve">CAPC_0805</t>
   </si>
   <si>
-    <t xml:space="preserve">C2, C3, C4, C5, C8, C10</t>
+    <t xml:space="preserve">C2, C3, C4, C5</t>
   </si>
   <si>
     <t xml:space="preserve">22p</t>
@@ -262,6 +262,7 @@
       <sz val="10"/>
       <name val="Tahoma"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -460,7 +461,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -470,7 +471,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="64.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="27.23"/>
@@ -529,9 +530,9 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>14</v>
